--- a/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922082329194093</v>
+        <v>1.014197825784827</v>
       </c>
       <c r="D2">
-        <v>1.010736818596451</v>
+        <v>1.028768100120052</v>
       </c>
       <c r="E2">
-        <v>0.9990924331556851</v>
+        <v>1.018256584590345</v>
       </c>
       <c r="F2">
-        <v>0.9990392913012472</v>
+        <v>1.017867347647773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037855503248281</v>
+        <v>1.047175980252443</v>
       </c>
       <c r="J2">
-        <v>1.014624518513393</v>
+        <v>1.035962019175384</v>
       </c>
       <c r="K2">
-        <v>1.022048571915121</v>
+        <v>1.039840686295183</v>
       </c>
       <c r="L2">
-        <v>1.010564426323297</v>
+        <v>1.029467303065906</v>
       </c>
       <c r="M2">
-        <v>1.010512026567897</v>
+        <v>1.029083249871599</v>
       </c>
       <c r="N2">
-        <v>1.016065401708741</v>
+        <v>1.037433204069146</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9998499370205268</v>
+        <v>1.020399488597914</v>
       </c>
       <c r="D3">
-        <v>1.016562649642377</v>
+        <v>1.033569562632196</v>
       </c>
       <c r="E3">
-        <v>1.005465849205805</v>
+        <v>1.023382034913928</v>
       </c>
       <c r="F3">
-        <v>1.006957774770014</v>
+        <v>1.024654181187339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040326462909424</v>
+        <v>1.049519298545578</v>
       </c>
       <c r="J3">
-        <v>1.020344693740239</v>
+        <v>1.040349079578999</v>
       </c>
       <c r="K3">
-        <v>1.026987905130162</v>
+        <v>1.043790202784306</v>
       </c>
       <c r="L3">
-        <v>1.016029267934589</v>
+        <v>1.033724230257307</v>
       </c>
       <c r="M3">
-        <v>1.017502396961201</v>
+        <v>1.034981033672308</v>
       </c>
       <c r="N3">
-        <v>1.021793700240522</v>
+        <v>1.041826494601708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00463965232492</v>
+        <v>1.024306933212386</v>
       </c>
       <c r="D4">
-        <v>1.020216541362161</v>
+        <v>1.036597266747964</v>
       </c>
       <c r="E4">
-        <v>1.009466737643801</v>
+        <v>1.02661680713215</v>
       </c>
       <c r="F4">
-        <v>1.01192545223216</v>
+        <v>1.028934010801013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041862445169947</v>
+        <v>1.050985344105212</v>
       </c>
       <c r="J4">
-        <v>1.023925415356296</v>
+        <v>1.043108659805795</v>
       </c>
       <c r="K4">
-        <v>1.030076943064224</v>
+        <v>1.046273182580004</v>
       </c>
       <c r="L4">
-        <v>1.019452234560295</v>
+        <v>1.036404263032537</v>
       </c>
       <c r="M4">
-        <v>1.021882047087254</v>
+        <v>1.038695332453298</v>
       </c>
       <c r="N4">
-        <v>1.025379506891988</v>
+        <v>1.044589993748955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006618314706812</v>
+        <v>1.025925588493336</v>
       </c>
       <c r="D5">
-        <v>1.021726429271196</v>
+        <v>1.037852011543546</v>
       </c>
       <c r="E5">
-        <v>1.011120895946223</v>
+        <v>1.027958039445195</v>
       </c>
       <c r="F5">
-        <v>1.013978701346813</v>
+        <v>1.030707842583851</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042493837426097</v>
+        <v>1.051590114754567</v>
       </c>
       <c r="J5">
-        <v>1.025403461746587</v>
+        <v>1.044250678080981</v>
       </c>
       <c r="K5">
-        <v>1.031351311783704</v>
+        <v>1.047300390191245</v>
       </c>
       <c r="L5">
-        <v>1.020865647606392</v>
+        <v>1.037513906877763</v>
       </c>
       <c r="M5">
-        <v>1.023690848300352</v>
+        <v>1.040233581783414</v>
       </c>
       <c r="N5">
-        <v>1.026859652277688</v>
+        <v>1.045733633821083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006948551762116</v>
+        <v>1.026195992031189</v>
       </c>
       <c r="D6">
-        <v>1.021978450908887</v>
+        <v>1.038061650826895</v>
       </c>
       <c r="E6">
-        <v>1.011397051017936</v>
+        <v>1.028182168748145</v>
       </c>
       <c r="F6">
-        <v>1.014321449608646</v>
+        <v>1.031004223793325</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042599030199172</v>
+        <v>1.05169099393727</v>
       </c>
       <c r="J6">
-        <v>1.025650075545382</v>
+        <v>1.044441389298175</v>
       </c>
       <c r="K6">
-        <v>1.031563898537667</v>
+        <v>1.047471908059964</v>
       </c>
       <c r="L6">
-        <v>1.02110150537073</v>
+        <v>1.037699243554917</v>
       </c>
       <c r="M6">
-        <v>1.023992707900605</v>
+        <v>1.040490530118796</v>
       </c>
       <c r="N6">
-        <v>1.027106616296364</v>
+        <v>1.04592461587008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004666225851049</v>
+        <v>1.024328654665435</v>
       </c>
       <c r="D7">
-        <v>1.020236817629782</v>
+        <v>1.036614102756622</v>
       </c>
       <c r="E7">
-        <v>1.009488947789255</v>
+        <v>1.026634800940641</v>
       </c>
       <c r="F7">
-        <v>1.011953023234462</v>
+        <v>1.028957810972458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041870937281218</v>
+        <v>1.050993469882554</v>
       </c>
       <c r="J7">
-        <v>1.023945270317073</v>
+        <v>1.043123989602197</v>
       </c>
       <c r="K7">
-        <v>1.030094064863606</v>
+        <v>1.046286972598685</v>
       </c>
       <c r="L7">
-        <v>1.019471219384019</v>
+        <v>1.036419156106758</v>
       </c>
       <c r="M7">
-        <v>1.021906341224882</v>
+        <v>1.038715976457173</v>
       </c>
       <c r="N7">
-        <v>1.025399390049088</v>
+        <v>1.044605345315426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948242404524169</v>
+        <v>1.016316296100601</v>
       </c>
       <c r="D8">
-        <v>1.012730621401459</v>
+        <v>1.03040769886864</v>
       </c>
       <c r="E8">
-        <v>1.001272904962995</v>
+        <v>1.02000624203569</v>
       </c>
       <c r="F8">
-        <v>1.001749099114107</v>
+        <v>1.020184953359048</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704053812731</v>
+        <v>1.047978612853556</v>
       </c>
       <c r="J8">
-        <v>1.016583653265805</v>
+        <v>1.037461556703492</v>
       </c>
       <c r="K8">
-        <v>1.023740865966576</v>
+        <v>1.041190948391648</v>
       </c>
       <c r="L8">
-        <v>1.012435661505895</v>
+        <v>1.030921867218097</v>
       </c>
       <c r="M8">
-        <v>1.012905429754177</v>
+        <v>1.031098275644088</v>
       </c>
       <c r="N8">
-        <v>1.018027318657217</v>
+        <v>1.038934871112515</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9761855210420342</v>
+        <v>1.00133068061932</v>
       </c>
       <c r="D9">
-        <v>0.9985407650553687</v>
+        <v>1.018823406336013</v>
       </c>
       <c r="E9">
-        <v>0.9857686919463816</v>
+        <v>1.00765579801479</v>
       </c>
       <c r="F9">
-        <v>0.9824617804756274</v>
+        <v>1.003805134702652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032605688362138</v>
+        <v>1.042258181490522</v>
       </c>
       <c r="J9">
-        <v>1.002608195079725</v>
+        <v>1.026836536472754</v>
       </c>
       <c r="K9">
-        <v>1.011657561778136</v>
+        <v>1.031618294521051</v>
       </c>
       <c r="L9">
-        <v>0.9990969607492407</v>
+        <v>1.020625874499216</v>
       </c>
       <c r="M9">
-        <v>0.995845959840272</v>
+        <v>1.016836776455585</v>
       </c>
       <c r="N9">
-        <v>1.004032013717505</v>
+        <v>1.028294762134343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9627147749353883</v>
+        <v>0.990666097932077</v>
       </c>
       <c r="D10">
-        <v>0.9883126618190133</v>
+        <v>1.010601103198429</v>
       </c>
       <c r="E10">
-        <v>0.9746098423271307</v>
+        <v>0.9989038401729012</v>
       </c>
       <c r="F10">
-        <v>0.9685479314397295</v>
+        <v>0.9921650447054395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028134306364943</v>
+        <v>1.038134729249056</v>
       </c>
       <c r="J10">
-        <v>0.9924899909226839</v>
+        <v>1.019255000795423</v>
       </c>
       <c r="K10">
-        <v>1.002896190501813</v>
+        <v>1.024781553604069</v>
       </c>
       <c r="L10">
-        <v>0.9894531721762494</v>
+        <v>1.013292914368825</v>
       </c>
       <c r="M10">
-        <v>0.9835092719421787</v>
+        <v>1.006677217450211</v>
       </c>
       <c r="N10">
-        <v>0.9938994405499872</v>
+        <v>1.020702459806736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9565875603051784</v>
+        <v>0.9858650194640777</v>
       </c>
       <c r="D11">
-        <v>0.983669471894165</v>
+        <v>1.006906069483503</v>
       </c>
       <c r="E11">
-        <v>0.9695475411026505</v>
+        <v>0.9949739844573602</v>
       </c>
       <c r="F11">
-        <v>0.9622253848630014</v>
+        <v>0.9869281238622269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026086571963885</v>
+        <v>1.036266683112692</v>
       </c>
       <c r="J11">
-        <v>0.9878849138624106</v>
+        <v>1.01583788656149</v>
       </c>
       <c r="K11">
-        <v>0.9989060721448646</v>
+        <v>1.021698912138747</v>
       </c>
       <c r="L11">
-        <v>0.9850675404174711</v>
+        <v>1.009991310603425</v>
       </c>
       <c r="M11">
-        <v>0.9778966544398416</v>
+        <v>1.002100839957145</v>
       </c>
       <c r="N11">
-        <v>0.9892878237520788</v>
+        <v>1.017280492878642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9542627678098806</v>
+        <v>0.9840519124406033</v>
       </c>
       <c r="D12">
-        <v>0.9819093697069963</v>
+        <v>1.005511771742009</v>
       </c>
       <c r="E12">
-        <v>0.9676290269025012</v>
+        <v>0.9934915447185089</v>
       </c>
       <c r="F12">
-        <v>0.959827422963044</v>
+        <v>0.9849508591595367</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025307652514489</v>
+        <v>1.035559532762097</v>
       </c>
       <c r="J12">
-        <v>0.9861373750552699</v>
+        <v>1.014546903252403</v>
       </c>
       <c r="K12">
-        <v>0.9973915631014469</v>
+        <v>1.020534131294515</v>
       </c>
       <c r="L12">
-        <v>0.9834038401665013</v>
+        <v>1.008744507826951</v>
       </c>
       <c r="M12">
-        <v>0.9757669743734735</v>
+        <v>1.000372170123624</v>
       </c>
       <c r="N12">
-        <v>0.9875378032393863</v>
+        <v>1.015987676225178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9547637376393994</v>
+        <v>0.9844422160442848</v>
       </c>
       <c r="D13">
-        <v>0.9822885768438071</v>
+        <v>1.005811866570531</v>
       </c>
       <c r="E13">
-        <v>0.9680423433638191</v>
+        <v>0.993810589525334</v>
       </c>
       <c r="F13">
-        <v>0.9603441173512859</v>
+        <v>0.9853764820138331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025475588548818</v>
+        <v>1.035711834638771</v>
       </c>
       <c r="J13">
-        <v>0.9865139624690896</v>
+        <v>1.014824832833618</v>
       </c>
       <c r="K13">
-        <v>0.9977179478039132</v>
+        <v>1.020784898260015</v>
       </c>
       <c r="L13">
-        <v>0.9837623347203321</v>
+        <v>1.009012901258282</v>
       </c>
       <c r="M13">
-        <v>0.9762259047107229</v>
+        <v>1.000744316463273</v>
       </c>
       <c r="N13">
-        <v>0.9879149254505286</v>
+        <v>1.016266000498277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9563964186144617</v>
+        <v>0.9857157686714729</v>
       </c>
       <c r="D14">
-        <v>0.9835247239729576</v>
+        <v>1.00679127066288</v>
       </c>
       <c r="E14">
-        <v>0.9693897566049214</v>
+        <v>0.9948519191219868</v>
       </c>
       <c r="F14">
-        <v>0.9620282080959803</v>
+        <v>0.9867653515193267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026022569211003</v>
+        <v>1.036208506015762</v>
       </c>
       <c r="J14">
-        <v>0.9877412380299879</v>
+        <v>1.015731625981602</v>
       </c>
       <c r="K14">
-        <v>0.9987815615902388</v>
+        <v>1.021603042396244</v>
       </c>
       <c r="L14">
-        <v>0.9849307458440874</v>
+        <v>1.009888675426787</v>
       </c>
       <c r="M14">
-        <v>0.9777215571254431</v>
+        <v>1.001958548500067</v>
       </c>
       <c r="N14">
-        <v>0.989143943883494</v>
+        <v>1.017174081396542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573957401487593</v>
+        <v>0.9864964300441027</v>
       </c>
       <c r="D15">
-        <v>0.9842815583019608</v>
+        <v>1.007391776029364</v>
       </c>
       <c r="E15">
-        <v>0.9702147728725166</v>
+        <v>0.995490454068229</v>
       </c>
       <c r="F15">
-        <v>0.9630591204115108</v>
+        <v>0.9876167551823373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026357107508737</v>
+        <v>1.036512734962245</v>
       </c>
       <c r="J15">
-        <v>0.9884923895532485</v>
+        <v>1.016287404700327</v>
       </c>
       <c r="K15">
-        <v>0.9994325018436933</v>
+        <v>1.022104467107492</v>
       </c>
       <c r="L15">
-        <v>0.9856459445390385</v>
+        <v>1.01042551417348</v>
       </c>
       <c r="M15">
-        <v>0.9786369906755467</v>
+        <v>1.002702791602796</v>
       </c>
       <c r="N15">
-        <v>0.9898961621280757</v>
+        <v>1.017730649384796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9631148352932858</v>
+        <v>0.9909806830632012</v>
       </c>
       <c r="D16">
-        <v>0.9886160351169081</v>
+        <v>1.010843362785546</v>
       </c>
       <c r="E16">
-        <v>0.9749406655549619</v>
+        <v>0.9991615607755817</v>
       </c>
       <c r="F16">
-        <v>0.9689608746465568</v>
+        <v>0.9925082516823275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028267730569984</v>
+        <v>1.038256893585291</v>
       </c>
       <c r="J16">
-        <v>0.9927906213308868</v>
+        <v>1.019478826676218</v>
       </c>
       <c r="K16">
-        <v>1.003156625977096</v>
+        <v>1.02498344759374</v>
       </c>
       <c r="L16">
-        <v>0.9897395521743447</v>
+        <v>1.013509247708057</v>
       </c>
       <c r="M16">
-        <v>0.9838757115377753</v>
+        <v>1.006977022522574</v>
       </c>
       <c r="N16">
-        <v>0.9942004978878526</v>
+        <v>1.020926603545955</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666204005478166</v>
+        <v>0.9937429687142819</v>
       </c>
       <c r="D17">
-        <v>0.9912754220840483</v>
+        <v>1.0129713343722</v>
       </c>
       <c r="E17">
-        <v>0.9778410590234355</v>
+        <v>1.00142570043925</v>
       </c>
       <c r="F17">
-        <v>0.9725800275529357</v>
+        <v>0.9955222269007385</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029435320385796</v>
+        <v>1.03932826747346</v>
       </c>
       <c r="J17">
-        <v>0.995424625099731</v>
+        <v>1.021443737210631</v>
       </c>
       <c r="K17">
-        <v>1.005438173820985</v>
+        <v>1.026755688394307</v>
       </c>
       <c r="L17">
-        <v>0.9922490996782534</v>
+        <v>1.015408778055699</v>
       </c>
       <c r="M17">
-        <v>0.9870865383301266</v>
+        <v>1.009609225873293</v>
       </c>
       <c r="N17">
-        <v>0.9968382422441731</v>
+        <v>1.022894304478705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9686370906962281</v>
+        <v>0.9953366466426505</v>
       </c>
       <c r="D18">
-        <v>0.9928061549689711</v>
+        <v>1.014199659008865</v>
       </c>
       <c r="E18">
-        <v>0.9795108380632823</v>
+        <v>1.002732928041298</v>
       </c>
       <c r="F18">
-        <v>0.9746626441399269</v>
+        <v>0.9972614324500131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030105702756296</v>
+        <v>1.03994527901598</v>
       </c>
       <c r="J18">
-        <v>0.9969396512014138</v>
+        <v>1.02257699489764</v>
       </c>
       <c r="K18">
-        <v>1.006750229781284</v>
+        <v>1.027777708055944</v>
       </c>
       <c r="L18">
-        <v>0.993692868756742</v>
+        <v>1.016504653746578</v>
       </c>
       <c r="M18">
-        <v>0.9889335517017626</v>
+        <v>1.011127605167661</v>
       </c>
       <c r="N18">
-        <v>0.998355419856696</v>
+        <v>1.024029171521615</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9693201033426613</v>
+        <v>0.9958771427039478</v>
       </c>
       <c r="D19">
-        <v>0.9933247181303494</v>
+        <v>1.01461634505346</v>
       </c>
       <c r="E19">
-        <v>0.9800765619524123</v>
+        <v>1.003176432230368</v>
       </c>
       <c r="F19">
-        <v>0.9753680830955341</v>
+        <v>0.9978513397943901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030332521970489</v>
+        <v>1.040154348509742</v>
       </c>
       <c r="J19">
-        <v>0.9974527105961466</v>
+        <v>1.022961272588987</v>
       </c>
       <c r="K19">
-        <v>1.007194510990665</v>
+        <v>1.028124245583709</v>
       </c>
       <c r="L19">
-        <v>0.9941818518303547</v>
+        <v>1.016876310281247</v>
       </c>
       <c r="M19">
-        <v>0.9895590766942339</v>
+        <v>1.011642522078145</v>
       </c>
       <c r="N19">
-        <v>0.9988692078546182</v>
+        <v>1.024413994931362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9662472190845506</v>
+        <v>0.9934484288550631</v>
       </c>
       <c r="D20">
-        <v>0.9909922312482375</v>
+        <v>1.012744366663497</v>
       </c>
       <c r="E20">
-        <v>0.9775321707554278</v>
+        <v>1.001184177791472</v>
       </c>
       <c r="F20">
-        <v>0.9721946936969078</v>
+        <v>0.9952008170756608</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029311161327969</v>
+        <v>1.03921414260507</v>
       </c>
       <c r="J20">
-        <v>0.9951442519912841</v>
+        <v>1.021234259781497</v>
       </c>
       <c r="K20">
-        <v>1.005195342514471</v>
+        <v>1.026566763241936</v>
       </c>
       <c r="L20">
-        <v>0.9919819398518445</v>
+        <v>1.015206236770827</v>
       </c>
       <c r="M20">
-        <v>0.9867447449954477</v>
+        <v>1.009328582540325</v>
       </c>
       <c r="N20">
-        <v>0.996557470973753</v>
+        <v>1.022684529567593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9559170247547581</v>
+        <v>0.9853415802871347</v>
       </c>
       <c r="D21">
-        <v>0.9831617151931529</v>
+        <v>1.006503475637842</v>
       </c>
       <c r="E21">
-        <v>0.9689940610313825</v>
+        <v>0.9945459147589873</v>
       </c>
       <c r="F21">
-        <v>0.9615336931294691</v>
+        <v>0.9863572698944552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025862015636019</v>
+        <v>1.036062622589581</v>
       </c>
       <c r="J21">
-        <v>0.9873808872084069</v>
+        <v>1.015465210682159</v>
       </c>
       <c r="K21">
-        <v>0.9984692736603534</v>
+        <v>1.021362676369715</v>
       </c>
       <c r="L21">
-        <v>0.9845876629598715</v>
+        <v>1.009631358463497</v>
       </c>
       <c r="M21">
-        <v>0.9772824014269716</v>
+        <v>1.001601801107728</v>
       </c>
       <c r="N21">
-        <v>0.9887830813224138</v>
+        <v>1.016907287756815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9491364201793131</v>
+        <v>0.9800709287891149</v>
       </c>
       <c r="D22">
-        <v>0.9780315107836587</v>
+        <v>1.00245256677243</v>
       </c>
       <c r="E22">
-        <v>0.9634029437405277</v>
+        <v>0.9902397920345097</v>
       </c>
       <c r="F22">
-        <v>0.9545414846560026</v>
+        <v>0.9806101675463382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023586592665688</v>
+        <v>1.034003830029312</v>
       </c>
       <c r="J22">
-        <v>0.9822835768445092</v>
+        <v>1.011711452438288</v>
       </c>
       <c r="K22">
-        <v>0.9940511017147265</v>
+        <v>1.017975593904737</v>
       </c>
       <c r="L22">
-        <v>0.9797360104882118</v>
+        <v>1.006007112246827</v>
       </c>
       <c r="M22">
-        <v>0.9710706722099733</v>
+        <v>0.9965757817493949</v>
       </c>
       <c r="N22">
-        <v>0.9836785321931295</v>
+        <v>1.013148198745676</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9527597632020408</v>
+        <v>0.9828822672614309</v>
       </c>
       <c r="D23">
-        <v>0.9807719351715949</v>
+        <v>1.004612634676031</v>
       </c>
       <c r="E23">
-        <v>0.9663893445279838</v>
+        <v>0.9925356974222297</v>
       </c>
       <c r="F23">
-        <v>0.9582773807695066</v>
+        <v>0.9836754294663611</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02480353456403</v>
+        <v>1.035102878829179</v>
       </c>
       <c r="J23">
-        <v>0.9850075125295628</v>
+        <v>1.013713944979013</v>
       </c>
       <c r="K23">
-        <v>0.9964122772022067</v>
+        <v>1.019782557863113</v>
       </c>
       <c r="L23">
-        <v>0.982328346454941</v>
+        <v>1.007940210330253</v>
       </c>
       <c r="M23">
-        <v>0.9743900803143147</v>
+        <v>0.9992568744473822</v>
       </c>
       <c r="N23">
-        <v>0.9864063361792956</v>
+        <v>1.015153535055498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664159300529241</v>
+        <v>0.9935815727044612</v>
       </c>
       <c r="D24">
-        <v>0.9911202559334371</v>
+        <v>1.012846963305324</v>
       </c>
       <c r="E24">
-        <v>0.9776718117052704</v>
+        <v>1.001293352788512</v>
       </c>
       <c r="F24">
-        <v>0.9723688968131625</v>
+        <v>0.9953461062391552</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029367296269347</v>
+        <v>1.039265735077894</v>
       </c>
       <c r="J24">
-        <v>0.995271006239054</v>
+        <v>1.021328953184282</v>
       </c>
       <c r="K24">
-        <v>1.005305125203555</v>
+        <v>1.026652166435675</v>
       </c>
       <c r="L24">
-        <v>0.9921027194732508</v>
+        <v>1.015297793707931</v>
       </c>
       <c r="M24">
-        <v>0.9868992661317371</v>
+        <v>1.009455445372188</v>
       </c>
       <c r="N24">
-        <v>0.9966844052270935</v>
+        <v>1.022779357445871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811742000679848</v>
+        <v>1.005316412526109</v>
       </c>
       <c r="D25">
-        <v>1.002334833769778</v>
+        <v>1.021901203202632</v>
       </c>
       <c r="E25">
-        <v>0.9899112048305284</v>
+        <v>1.010934682444276</v>
       </c>
       <c r="F25">
-        <v>0.987619745882501</v>
+        <v>1.008158643124058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034249135575965</v>
+        <v>1.043788842931897</v>
       </c>
       <c r="J25">
-        <v>1.006352172657105</v>
+        <v>1.029666173327883</v>
       </c>
       <c r="K25">
-        <v>1.014897012256605</v>
+        <v>1.034168785093934</v>
       </c>
       <c r="L25">
-        <v>1.002668181679438</v>
+        <v>1.023365590326738</v>
       </c>
       <c r="M25">
-        <v>1.000413338499477</v>
+        <v>1.020631613259971</v>
       </c>
       <c r="N25">
-        <v>1.007781308172485</v>
+        <v>1.03112841739837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014197825784827</v>
+        <v>1.008544057787681</v>
       </c>
       <c r="D2">
-        <v>1.028768100120052</v>
+        <v>1.025648400603268</v>
       </c>
       <c r="E2">
-        <v>1.018256584590345</v>
+        <v>1.013749727954536</v>
       </c>
       <c r="F2">
-        <v>1.017867347647773</v>
+        <v>1.013404511682762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047175980252443</v>
+        <v>1.045274641199345</v>
       </c>
       <c r="J2">
-        <v>1.035962019175384</v>
+        <v>1.030472186517953</v>
       </c>
       <c r="K2">
-        <v>1.039840686295183</v>
+        <v>1.036761612723906</v>
       </c>
       <c r="L2">
-        <v>1.029467303065906</v>
+        <v>1.02502077390091</v>
       </c>
       <c r="M2">
-        <v>1.029083249871599</v>
+        <v>1.024680206405439</v>
       </c>
       <c r="N2">
-        <v>1.037433204069146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013810933280819</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03706390490186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020399488597914</v>
+        <v>1.012752559626422</v>
       </c>
       <c r="D3">
-        <v>1.033569562632196</v>
+        <v>1.028458089571069</v>
       </c>
       <c r="E3">
-        <v>1.023382034913928</v>
+        <v>1.017102716879505</v>
       </c>
       <c r="F3">
-        <v>1.024654181187339</v>
+        <v>1.018415977280156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049519298545578</v>
+        <v>1.046478491208957</v>
       </c>
       <c r="J3">
-        <v>1.040349079578999</v>
+        <v>1.032901512612618</v>
       </c>
       <c r="K3">
-        <v>1.043790202784306</v>
+        <v>1.038739345391028</v>
       </c>
       <c r="L3">
-        <v>1.033724230257307</v>
+        <v>1.027521343838768</v>
       </c>
       <c r="M3">
-        <v>1.034981033672308</v>
+        <v>1.028818522376499</v>
       </c>
       <c r="N3">
-        <v>1.041826494601708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014645718909131</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038459671039098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024306933212386</v>
+        <v>1.015423925817286</v>
       </c>
       <c r="D4">
-        <v>1.036597266747964</v>
+        <v>1.030245904626086</v>
       </c>
       <c r="E4">
-        <v>1.02661680713215</v>
+        <v>1.01923682258326</v>
       </c>
       <c r="F4">
-        <v>1.028934010801013</v>
+        <v>1.021598266353957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050985344105212</v>
+        <v>1.047234803631359</v>
       </c>
       <c r="J4">
-        <v>1.043108659805795</v>
+        <v>1.03444114904224</v>
       </c>
       <c r="K4">
-        <v>1.046273182580004</v>
+        <v>1.0399924944496</v>
       </c>
       <c r="L4">
-        <v>1.036404263032537</v>
+        <v>1.02910849027431</v>
       </c>
       <c r="M4">
-        <v>1.038695332453298</v>
+        <v>1.031442824642549</v>
       </c>
       <c r="N4">
-        <v>1.044589993748955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01517462940464</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039346655124363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025925588493336</v>
+        <v>1.016539112328105</v>
       </c>
       <c r="D5">
-        <v>1.037852011543546</v>
+        <v>1.030995514151144</v>
       </c>
       <c r="E5">
-        <v>1.027958039445195</v>
+        <v>1.020129567044918</v>
       </c>
       <c r="F5">
-        <v>1.030707842583851</v>
+        <v>1.022926018890466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051590114754567</v>
+        <v>1.047550269584084</v>
       </c>
       <c r="J5">
-        <v>1.044250678080981</v>
+        <v>1.035084936446359</v>
       </c>
       <c r="K5">
-        <v>1.047300390191245</v>
+        <v>1.040518112875005</v>
       </c>
       <c r="L5">
-        <v>1.037513906877763</v>
+        <v>1.029772301865872</v>
       </c>
       <c r="M5">
-        <v>1.040233581783414</v>
+        <v>1.032537535554743</v>
       </c>
       <c r="N5">
-        <v>1.045733633821083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015396231391312</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039725485914305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026195992031189</v>
+        <v>1.016730688034507</v>
       </c>
       <c r="D6">
-        <v>1.038061650826895</v>
+        <v>1.031127094073365</v>
       </c>
       <c r="E6">
-        <v>1.028182168748145</v>
+        <v>1.02028360253765</v>
       </c>
       <c r="F6">
-        <v>1.031004223793325</v>
+        <v>1.023152837627137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05169099393727</v>
+        <v>1.047606353893531</v>
       </c>
       <c r="J6">
-        <v>1.044441389298175</v>
+        <v>1.035197500968515</v>
       </c>
       <c r="K6">
-        <v>1.047471908059964</v>
+        <v>1.040612065455359</v>
       </c>
       <c r="L6">
-        <v>1.037699243554917</v>
+        <v>1.02988790745064</v>
       </c>
       <c r="M6">
-        <v>1.040490530118796</v>
+        <v>1.032725263806786</v>
       </c>
       <c r="N6">
-        <v>1.04592461587008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015435563126696</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039800665541033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024328654665435</v>
+        <v>1.015452412342394</v>
       </c>
       <c r="D7">
-        <v>1.036614102756622</v>
+        <v>1.030272410337078</v>
       </c>
       <c r="E7">
-        <v>1.026634800940641</v>
+        <v>1.019261232113029</v>
       </c>
       <c r="F7">
-        <v>1.028957810972458</v>
+        <v>1.021628702629324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050993469882554</v>
+        <v>1.047248261781813</v>
       </c>
       <c r="J7">
-        <v>1.043123989602197</v>
+        <v>1.034462987150879</v>
       </c>
       <c r="K7">
-        <v>1.046286972598685</v>
+        <v>1.040015819421917</v>
       </c>
       <c r="L7">
-        <v>1.036419156106758</v>
+        <v>1.02912969344881</v>
       </c>
       <c r="M7">
-        <v>1.038715976457173</v>
+        <v>1.031469996263591</v>
       </c>
       <c r="N7">
-        <v>1.044605345315426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015183749540633</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039383270209097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016316296100601</v>
+        <v>1.009994403649402</v>
       </c>
       <c r="D8">
-        <v>1.03040769886864</v>
+        <v>1.026624907850392</v>
       </c>
       <c r="E8">
-        <v>1.02000624203569</v>
+        <v>1.014906137809547</v>
       </c>
       <c r="F8">
-        <v>1.020184953359048</v>
+        <v>1.015127002844041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047978612853556</v>
+        <v>1.045697848343887</v>
       </c>
       <c r="J8">
-        <v>1.037461556703492</v>
+        <v>1.031316609090667</v>
       </c>
       <c r="K8">
-        <v>1.041190948391648</v>
+        <v>1.037455912103028</v>
       </c>
       <c r="L8">
-        <v>1.030921867218097</v>
+        <v>1.025887911721812</v>
       </c>
       <c r="M8">
-        <v>1.031098275644088</v>
+        <v>1.026105894875646</v>
       </c>
       <c r="N8">
-        <v>1.038934871112515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014103241341938</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037577778802357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00133068061932</v>
+        <v>0.9999376685319997</v>
       </c>
       <c r="D9">
-        <v>1.018823406336013</v>
+        <v>1.019928930764668</v>
       </c>
       <c r="E9">
-        <v>1.00765579801479</v>
+        <v>1.00692660358883</v>
       </c>
       <c r="F9">
-        <v>1.003805134702652</v>
+        <v>1.003160466126577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042258181490522</v>
+        <v>1.042771384547996</v>
       </c>
       <c r="J9">
-        <v>1.026836536472754</v>
+        <v>1.025492628075967</v>
       </c>
       <c r="K9">
-        <v>1.031618294521051</v>
+        <v>1.032706742853344</v>
       </c>
       <c r="L9">
-        <v>1.020625874499216</v>
+        <v>1.019908292278278</v>
       </c>
       <c r="M9">
-        <v>1.016836776455585</v>
+        <v>1.016202474243952</v>
       </c>
       <c r="N9">
-        <v>1.028294762134343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0120994514967</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034216595263962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.990666097932077</v>
+        <v>0.9929274570675772</v>
       </c>
       <c r="D10">
-        <v>1.010601103198429</v>
+        <v>1.015291848882472</v>
       </c>
       <c r="E10">
-        <v>0.9989038401729012</v>
+        <v>1.001400155281959</v>
       </c>
       <c r="F10">
-        <v>0.9921650447054395</v>
+        <v>0.9948195558506525</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038134729249056</v>
+        <v>1.040693931728052</v>
       </c>
       <c r="J10">
-        <v>1.019255000795423</v>
+        <v>1.021424519287858</v>
       </c>
       <c r="K10">
-        <v>1.024781553604069</v>
+        <v>1.02939038629842</v>
       </c>
       <c r="L10">
-        <v>1.013292914368825</v>
+        <v>1.015744175427032</v>
       </c>
       <c r="M10">
-        <v>1.006677217450211</v>
+        <v>1.009282979037216</v>
       </c>
       <c r="N10">
-        <v>1.020702459806736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010700189406547</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031888580254479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9858650194640777</v>
+        <v>0.9898293169811716</v>
       </c>
       <c r="D11">
-        <v>1.006906069483503</v>
+        <v>1.013258935880585</v>
       </c>
       <c r="E11">
-        <v>0.9949739844573602</v>
+        <v>0.9989692665467231</v>
       </c>
       <c r="F11">
-        <v>0.9869281238622269</v>
+        <v>0.9911285157500254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036266683112692</v>
+        <v>1.03977364398489</v>
       </c>
       <c r="J11">
-        <v>1.01583788656149</v>
+        <v>1.019631415919922</v>
       </c>
       <c r="K11">
-        <v>1.021698912138747</v>
+        <v>1.027935066157894</v>
       </c>
       <c r="L11">
-        <v>1.009991310603425</v>
+        <v>1.013910647203819</v>
       </c>
       <c r="M11">
-        <v>1.002100839957145</v>
+        <v>1.006219697214037</v>
       </c>
       <c r="N11">
-        <v>1.017280492878642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010085967625401</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03089260552174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9840519124406033</v>
+        <v>0.9886558303689575</v>
       </c>
       <c r="D12">
-        <v>1.005511771742009</v>
+        <v>1.012484989300205</v>
       </c>
       <c r="E12">
-        <v>0.9934915447185089</v>
+        <v>0.9980485290598586</v>
       </c>
       <c r="F12">
-        <v>0.9849508591595367</v>
+        <v>0.9897327703807584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035559532762097</v>
+        <v>1.039420039333742</v>
       </c>
       <c r="J12">
-        <v>1.014546903252403</v>
+        <v>1.018948178251157</v>
       </c>
       <c r="K12">
-        <v>1.020534131294515</v>
+        <v>1.027376842797602</v>
       </c>
       <c r="L12">
-        <v>1.008744507826951</v>
+        <v>1.013213211916018</v>
       </c>
       <c r="M12">
-        <v>1.000372170123624</v>
+        <v>1.005059353742908</v>
       </c>
       <c r="N12">
-        <v>1.015987676225178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009850574820075</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030497919322662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844422160442848</v>
+        <v>0.9889061648616206</v>
       </c>
       <c r="D13">
-        <v>1.005811866570531</v>
+        <v>1.012649044480383</v>
       </c>
       <c r="E13">
-        <v>0.993810589525334</v>
+        <v>0.9982446028814126</v>
       </c>
       <c r="F13">
-        <v>0.9853764820138331</v>
+        <v>0.9900310040045615</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035711834638771</v>
+        <v>1.039494804957345</v>
       </c>
       <c r="J13">
-        <v>1.014824832833618</v>
+        <v>1.019093202694493</v>
       </c>
       <c r="K13">
-        <v>1.020784898260015</v>
+        <v>1.027494621716956</v>
       </c>
       <c r="L13">
-        <v>1.009012901258282</v>
+        <v>1.01336136373811</v>
       </c>
       <c r="M13">
-        <v>1.000744316463273</v>
+        <v>1.005307033950432</v>
       </c>
       <c r="N13">
-        <v>1.016266000498277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009900269079037</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030578686142517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9857157686714729</v>
+        <v>0.9897317408009038</v>
       </c>
       <c r="D14">
-        <v>1.00679127066288</v>
+        <v>1.013194132985622</v>
       </c>
       <c r="E14">
-        <v>0.9948519191219868</v>
+        <v>0.9988925591030743</v>
       </c>
       <c r="F14">
-        <v>0.9867653515193267</v>
+        <v>0.9910126659748717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036208506015762</v>
+        <v>1.03974395827876</v>
       </c>
       <c r="J14">
-        <v>1.015731625981602</v>
+        <v>1.019574294076957</v>
       </c>
       <c r="K14">
-        <v>1.021603042396244</v>
+        <v>1.02788809254843</v>
       </c>
       <c r="L14">
-        <v>1.009888675426787</v>
+        <v>1.01385238672282</v>
       </c>
       <c r="M14">
-        <v>1.001958548500067</v>
+        <v>1.006123278393844</v>
       </c>
       <c r="N14">
-        <v>1.017174081396542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010066172770871</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030858319191924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9864964300441027</v>
+        <v>0.9902425864676826</v>
       </c>
       <c r="D15">
-        <v>1.007391776029364</v>
+        <v>1.013533550219302</v>
       </c>
       <c r="E15">
-        <v>0.995490454068229</v>
+        <v>0.9992942351765967</v>
       </c>
       <c r="F15">
-        <v>0.9876167551823373</v>
+        <v>0.991619125570348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036512734962245</v>
+        <v>1.039899394100717</v>
       </c>
       <c r="J15">
-        <v>1.016287404700327</v>
+        <v>1.019873411562414</v>
       </c>
       <c r="K15">
-        <v>1.022104467107492</v>
+        <v>1.028134142669529</v>
       </c>
       <c r="L15">
-        <v>1.01042551417348</v>
+        <v>1.014157471770804</v>
       </c>
       <c r="M15">
-        <v>1.002702791602796</v>
+        <v>1.006628025280154</v>
       </c>
       <c r="N15">
-        <v>1.017730649384796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010169854679247</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031038191974758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9909806830632012</v>
+        <v>0.9931647626314064</v>
       </c>
       <c r="D16">
-        <v>1.010843362785546</v>
+        <v>1.015464906871503</v>
       </c>
       <c r="E16">
-        <v>0.9991615607755817</v>
+        <v>1.001591240855169</v>
       </c>
       <c r="F16">
-        <v>0.9925082516823275</v>
+        <v>0.9950940259703066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038256893585291</v>
+        <v>1.04077674072044</v>
       </c>
       <c r="J16">
-        <v>1.019478826676218</v>
+        <v>1.021574558601634</v>
       </c>
       <c r="K16">
-        <v>1.02498344759374</v>
+        <v>1.02952456625808</v>
       </c>
       <c r="L16">
-        <v>1.013509247708057</v>
+        <v>1.015895230811066</v>
       </c>
       <c r="M16">
-        <v>1.006977022522574</v>
+        <v>1.009515487813313</v>
       </c>
       <c r="N16">
-        <v>1.020926603545955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01075615008724</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032024461671742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9937429687142819</v>
+        <v>0.9949754178957015</v>
       </c>
       <c r="D17">
-        <v>1.0129713343722</v>
+        <v>1.016663551683788</v>
       </c>
       <c r="E17">
-        <v>1.00142570043925</v>
+        <v>1.003016915624112</v>
       </c>
       <c r="F17">
-        <v>0.9955222269007385</v>
+        <v>0.9972470423513934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03932826747346</v>
+        <v>1.041317979189233</v>
       </c>
       <c r="J17">
-        <v>1.021443737210631</v>
+        <v>1.022628062197954</v>
       </c>
       <c r="K17">
-        <v>1.026755688394307</v>
+        <v>1.030385583382591</v>
       </c>
       <c r="L17">
-        <v>1.015408778055699</v>
+        <v>1.016972253354935</v>
       </c>
       <c r="M17">
-        <v>1.009609225873293</v>
+        <v>1.011303513681568</v>
       </c>
       <c r="N17">
-        <v>1.022894304478705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011119216888597</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032635835088638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9953366466426505</v>
+        <v>0.9960134799998586</v>
       </c>
       <c r="D18">
-        <v>1.014199659008865</v>
+        <v>1.017346166838899</v>
       </c>
       <c r="E18">
-        <v>1.002732928041298</v>
+        <v>1.003833702154442</v>
       </c>
       <c r="F18">
-        <v>0.9972614324500131</v>
+        <v>0.9984838708259205</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03994527901598</v>
+        <v>1.041623585376655</v>
       </c>
       <c r="J18">
-        <v>1.02257699489764</v>
+        <v>1.023227943869635</v>
       </c>
       <c r="K18">
-        <v>1.027777708055944</v>
+        <v>1.030872052762742</v>
       </c>
       <c r="L18">
-        <v>1.016504653746578</v>
+        <v>1.017586587409069</v>
       </c>
       <c r="M18">
-        <v>1.011127605167661</v>
+        <v>1.01232882605327</v>
       </c>
       <c r="N18">
-        <v>1.024029171521615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011324579911202</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032968094667545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9958771427039478</v>
+        <v>0.9963740268065864</v>
       </c>
       <c r="D19">
-        <v>1.01461634505346</v>
+        <v>1.017587455024011</v>
       </c>
       <c r="E19">
-        <v>1.003176432230368</v>
+        <v>1.004118624775117</v>
       </c>
       <c r="F19">
-        <v>0.9978513397943901</v>
+        <v>0.9989114985111924</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040154348509742</v>
+        <v>1.041732565050246</v>
       </c>
       <c r="J19">
-        <v>1.022961272588987</v>
+        <v>1.023439289521252</v>
       </c>
       <c r="K19">
-        <v>1.028124245583709</v>
+        <v>1.031046404271452</v>
       </c>
       <c r="L19">
-        <v>1.016876310281247</v>
+        <v>1.01780247813392</v>
       </c>
       <c r="M19">
-        <v>1.011642522078145</v>
+        <v>1.012684402924424</v>
       </c>
       <c r="N19">
-        <v>1.024413994931362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01139800059758</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033097789779052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934484288550631</v>
+        <v>0.9947811704948775</v>
       </c>
       <c r="D20">
-        <v>1.012744366663497</v>
+        <v>1.016534483040593</v>
       </c>
       <c r="E20">
-        <v>1.001184177791472</v>
+        <v>1.002863771486978</v>
       </c>
       <c r="F20">
-        <v>0.9952008170756608</v>
+        <v>0.9970162640749516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03921414260507</v>
+        <v>1.041259707847831</v>
       </c>
       <c r="J20">
-        <v>1.021234259781497</v>
+        <v>1.02251476224704</v>
       </c>
       <c r="K20">
-        <v>1.026566763241936</v>
+        <v>1.030292693480368</v>
       </c>
       <c r="L20">
-        <v>1.015206236770827</v>
+        <v>1.016856451147413</v>
       </c>
       <c r="M20">
-        <v>1.009328582540325</v>
+        <v>1.011111782570123</v>
       </c>
       <c r="N20">
-        <v>1.022684529567593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011080064608353</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032568816502219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9853415802871347</v>
+        <v>0.9895000824769374</v>
       </c>
       <c r="D21">
-        <v>1.006503475637842</v>
+        <v>1.01304672684609</v>
       </c>
       <c r="E21">
-        <v>0.9945459147589873</v>
+        <v>0.9987122614670232</v>
       </c>
       <c r="F21">
-        <v>0.9863572698944552</v>
+        <v>0.9907345289080748</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036062622589581</v>
+        <v>1.039678154509763</v>
       </c>
       <c r="J21">
-        <v>1.015465210682159</v>
+        <v>1.019443456386439</v>
       </c>
       <c r="K21">
-        <v>1.021362676369715</v>
+        <v>1.027785070093642</v>
       </c>
       <c r="L21">
-        <v>1.009631358463497</v>
+        <v>1.013718071588139</v>
       </c>
       <c r="M21">
-        <v>1.001601801107728</v>
+        <v>1.005893590659284</v>
       </c>
       <c r="N21">
-        <v>1.016907287756815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010022564818049</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030799068988529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800709287891149</v>
+        <v>0.9860904481868772</v>
       </c>
       <c r="D22">
-        <v>1.00245256677243</v>
+        <v>1.010794541360747</v>
       </c>
       <c r="E22">
-        <v>0.9902397920345097</v>
+        <v>0.9960381383015615</v>
       </c>
       <c r="F22">
-        <v>0.9806101675463382</v>
+        <v>0.9866815254704836</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034003830029312</v>
+        <v>1.038644111988338</v>
       </c>
       <c r="J22">
-        <v>1.011711452438288</v>
+        <v>1.017453522495084</v>
       </c>
       <c r="K22">
-        <v>1.017975593904737</v>
+        <v>1.026155147012887</v>
       </c>
       <c r="L22">
-        <v>1.006007112246827</v>
+        <v>1.011688491143102</v>
       </c>
       <c r="M22">
-        <v>0.9965757817493949</v>
+        <v>1.002521523001328</v>
       </c>
       <c r="N22">
-        <v>1.013148198745676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009335443017327</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029633054334179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9828822672614309</v>
+        <v>0.9878920327317898</v>
       </c>
       <c r="D23">
-        <v>1.004612634676031</v>
+        <v>1.011977230808307</v>
       </c>
       <c r="E23">
-        <v>0.9925356974222297</v>
+        <v>0.9974484222490373</v>
       </c>
       <c r="F23">
-        <v>0.9836754294663611</v>
+        <v>0.9888263606953862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035102878829179</v>
+        <v>1.039186335205675</v>
       </c>
       <c r="J23">
-        <v>1.013713944979013</v>
+        <v>1.018500155822301</v>
       </c>
       <c r="K23">
-        <v>1.019782557863113</v>
+        <v>1.027007687977515</v>
       </c>
       <c r="L23">
-        <v>1.007940210330253</v>
+        <v>1.012756608543572</v>
       </c>
       <c r="M23">
-        <v>0.9992568744473822</v>
+        <v>1.004304438593314</v>
       </c>
       <c r="N23">
-        <v>1.015153535055498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009695032304334</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030226151574589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9935815727044612</v>
+        <v>0.9948473999644597</v>
       </c>
       <c r="D24">
-        <v>1.012846963305324</v>
+        <v>1.016567507785319</v>
       </c>
       <c r="E24">
-        <v>1.001293352788512</v>
+        <v>1.002913039084812</v>
       </c>
       <c r="F24">
-        <v>0.9953461062391552</v>
+        <v>0.9971002079093154</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039265735077894</v>
+        <v>1.041271557267477</v>
       </c>
       <c r="J24">
-        <v>1.021328953184282</v>
+        <v>1.022545247952038</v>
       </c>
       <c r="K24">
-        <v>1.026652166435675</v>
+        <v>1.030309794749071</v>
       </c>
       <c r="L24">
-        <v>1.015297793707931</v>
+        <v>1.01688919088743</v>
       </c>
       <c r="M24">
-        <v>1.009455445372188</v>
+        <v>1.011178439237212</v>
       </c>
       <c r="N24">
-        <v>1.022779357445871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011087733844162</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032553380951364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005316412526109</v>
+        <v>1.002612121701207</v>
       </c>
       <c r="D25">
-        <v>1.021901203202632</v>
+        <v>1.021716585863957</v>
       </c>
       <c r="E25">
-        <v>1.010934682444276</v>
+        <v>1.009045670012441</v>
       </c>
       <c r="F25">
-        <v>1.008158643124058</v>
+        <v>1.006336731667538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043788842931897</v>
+        <v>1.043565065786398</v>
       </c>
       <c r="J25">
-        <v>1.029666173327883</v>
+        <v>1.027051896178605</v>
       </c>
       <c r="K25">
-        <v>1.034168785093934</v>
+        <v>1.033986880444902</v>
       </c>
       <c r="L25">
-        <v>1.023365590326738</v>
+        <v>1.021505167947558</v>
       </c>
       <c r="M25">
-        <v>1.020631613259971</v>
+        <v>1.018837468064562</v>
       </c>
       <c r="N25">
-        <v>1.03112841739837</v>
+        <v>1.012638862056949</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035150411946478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008544057787681</v>
+        <v>1.008259095400499</v>
       </c>
       <c r="D2">
-        <v>1.025648400603268</v>
+        <v>1.024957117789654</v>
       </c>
       <c r="E2">
-        <v>1.013749727954536</v>
+        <v>1.013523531716084</v>
       </c>
       <c r="F2">
-        <v>1.013404511682762</v>
+        <v>1.013118078120611</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045274641199345</v>
+        <v>1.045013194505301</v>
       </c>
       <c r="J2">
-        <v>1.030472186517953</v>
+        <v>1.030195553621988</v>
       </c>
       <c r="K2">
-        <v>1.036761612723906</v>
+        <v>1.036079374004554</v>
       </c>
       <c r="L2">
-        <v>1.02502077390091</v>
+        <v>1.024797623233014</v>
       </c>
       <c r="M2">
-        <v>1.024680206405439</v>
+        <v>1.024397633059124</v>
       </c>
       <c r="N2">
-        <v>1.013810933280819</v>
+        <v>1.01503634860072</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03706390490186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036590293122083</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021605659186112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012752559626422</v>
+        <v>1.012243095063623</v>
       </c>
       <c r="D3">
-        <v>1.028458089571069</v>
+        <v>1.027508469197667</v>
       </c>
       <c r="E3">
-        <v>1.017102716879505</v>
+        <v>1.01667898731269</v>
       </c>
       <c r="F3">
-        <v>1.018415977280156</v>
+        <v>1.017926966931676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046478491208957</v>
+        <v>1.046079439715838</v>
       </c>
       <c r="J3">
-        <v>1.032901512612618</v>
+        <v>1.032405475464453</v>
       </c>
       <c r="K3">
-        <v>1.038739345391028</v>
+        <v>1.037801068704116</v>
       </c>
       <c r="L3">
-        <v>1.027521343838768</v>
+        <v>1.027102814186957</v>
       </c>
       <c r="M3">
-        <v>1.028818522376499</v>
+        <v>1.028335494298516</v>
       </c>
       <c r="N3">
-        <v>1.014645718909131</v>
+        <v>1.015638180563562</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038459671039098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03780473792825</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021970618831611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015423925817286</v>
+        <v>1.014773758441097</v>
       </c>
       <c r="D4">
-        <v>1.030245904626086</v>
+        <v>1.029133457477815</v>
       </c>
       <c r="E4">
-        <v>1.01923682258326</v>
+        <v>1.018689140105632</v>
       </c>
       <c r="F4">
-        <v>1.021598266353957</v>
+        <v>1.020982643681847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047234803631359</v>
+        <v>1.046749038903238</v>
       </c>
       <c r="J4">
-        <v>1.03444114904224</v>
+        <v>1.033806953875693</v>
       </c>
       <c r="K4">
-        <v>1.0399924944496</v>
+        <v>1.038892536474564</v>
       </c>
       <c r="L4">
-        <v>1.02910849027431</v>
+        <v>1.02856711737349</v>
       </c>
       <c r="M4">
-        <v>1.031442824642549</v>
+        <v>1.030834254409195</v>
       </c>
       <c r="N4">
-        <v>1.01517462940464</v>
+        <v>1.016019828154463</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039346655124363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038577479693627</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022199563996579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016539112328105</v>
+        <v>1.015830522528353</v>
       </c>
       <c r="D5">
-        <v>1.030995514151144</v>
+        <v>1.029815327963418</v>
       </c>
       <c r="E5">
-        <v>1.020129567044918</v>
+        <v>1.019530373319821</v>
       </c>
       <c r="F5">
-        <v>1.022926018890466</v>
+        <v>1.022257901908976</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047550269584084</v>
+        <v>1.047028399117149</v>
       </c>
       <c r="J5">
-        <v>1.035084936446359</v>
+        <v>1.034393232235816</v>
       </c>
       <c r="K5">
-        <v>1.040518112875005</v>
+        <v>1.039350824347928</v>
       </c>
       <c r="L5">
-        <v>1.029772301865872</v>
+        <v>1.029179824663264</v>
       </c>
       <c r="M5">
-        <v>1.032537535554743</v>
+        <v>1.031876857982223</v>
       </c>
       <c r="N5">
-        <v>1.015396231391312</v>
+        <v>1.016179838267594</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039725485914305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038909413274823</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022295635171288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016730688034507</v>
+        <v>1.016011971883018</v>
       </c>
       <c r="D6">
-        <v>1.031127094073365</v>
+        <v>1.029935248292868</v>
       </c>
       <c r="E6">
-        <v>1.02028360253765</v>
+        <v>1.019675462794883</v>
       </c>
       <c r="F6">
-        <v>1.023152837627137</v>
+        <v>1.022475625471174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047606353893531</v>
+        <v>1.047078224920882</v>
       </c>
       <c r="J6">
-        <v>1.035197500968515</v>
+        <v>1.034495823295585</v>
       </c>
       <c r="K6">
-        <v>1.040612065455359</v>
+        <v>1.039433185164962</v>
       </c>
       <c r="L6">
-        <v>1.02988790745064</v>
+        <v>1.029286552821063</v>
       </c>
       <c r="M6">
-        <v>1.032725263806786</v>
+        <v>1.032055556002279</v>
       </c>
       <c r="N6">
-        <v>1.015435563126696</v>
+        <v>1.016208279062521</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039800665541033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038977266417456</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022313508725937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015452412342394</v>
+        <v>1.014809924217778</v>
       </c>
       <c r="D7">
-        <v>1.030272410337078</v>
+        <v>1.029165107230238</v>
       </c>
       <c r="E7">
-        <v>1.019261232113029</v>
+        <v>1.018720553507851</v>
       </c>
       <c r="F7">
-        <v>1.021628702629324</v>
+        <v>1.021019899333838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047248261781813</v>
+        <v>1.046766270615408</v>
       </c>
       <c r="J7">
-        <v>1.034462987150879</v>
+        <v>1.033836275478659</v>
       </c>
       <c r="K7">
-        <v>1.040015819421917</v>
+        <v>1.038920942727733</v>
       </c>
       <c r="L7">
-        <v>1.02912969344881</v>
+        <v>1.02859524122792</v>
       </c>
       <c r="M7">
-        <v>1.031469996263591</v>
+        <v>1.030868164384326</v>
       </c>
       <c r="N7">
-        <v>1.015183749540633</v>
+        <v>1.016055190685944</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039383270209097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038619688800075</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022208016701218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009994403649402</v>
+        <v>1.009660561793308</v>
       </c>
       <c r="D8">
-        <v>1.026624907850392</v>
+        <v>1.02586584720143</v>
       </c>
       <c r="E8">
-        <v>1.014906137809547</v>
+        <v>1.014637880497073</v>
       </c>
       <c r="F8">
-        <v>1.015127002844041</v>
+        <v>1.01479620150599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045697848343887</v>
+        <v>1.045403736834902</v>
       </c>
       <c r="J8">
-        <v>1.031316609090667</v>
+        <v>1.03099219542518</v>
       </c>
       <c r="K8">
-        <v>1.037455912103028</v>
+        <v>1.036706486966811</v>
       </c>
       <c r="L8">
-        <v>1.025887911721812</v>
+        <v>1.025623156785364</v>
       </c>
       <c r="M8">
-        <v>1.026105894875646</v>
+        <v>1.025779410469641</v>
       </c>
       <c r="N8">
-        <v>1.014103241341938</v>
+        <v>1.015334524764761</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037577778802357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037058926843638</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021743626303834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9999376685319997</v>
+        <v>1.000156815085382</v>
       </c>
       <c r="D9">
-        <v>1.019928930764668</v>
+        <v>1.019798109352712</v>
       </c>
       <c r="E9">
-        <v>1.00692660358883</v>
+        <v>1.00714402126581</v>
       </c>
       <c r="F9">
-        <v>1.003160466126577</v>
+        <v>1.003331303259023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042771384547996</v>
+        <v>1.042812741496709</v>
       </c>
       <c r="J9">
-        <v>1.025492628075967</v>
+        <v>1.025704037022691</v>
       </c>
       <c r="K9">
-        <v>1.032706742853344</v>
+        <v>1.032577939662603</v>
       </c>
       <c r="L9">
-        <v>1.019908292278278</v>
+        <v>1.020122245388605</v>
       </c>
       <c r="M9">
-        <v>1.016202474243952</v>
+        <v>1.01637056262614</v>
       </c>
       <c r="N9">
-        <v>1.0120994514967</v>
+        <v>1.013902870782297</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034216595263962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034136299773261</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020853340691315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9929274570675772</v>
+        <v>0.9935880883574385</v>
       </c>
       <c r="D10">
-        <v>1.015291848882472</v>
+        <v>1.015639118968398</v>
       </c>
       <c r="E10">
-        <v>1.001400155281959</v>
+        <v>1.002005500828559</v>
       </c>
       <c r="F10">
-        <v>0.9948195558506525</v>
+        <v>0.9953938692842368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040693931728052</v>
+        <v>1.0409960023798</v>
       </c>
       <c r="J10">
-        <v>1.021424519287858</v>
+        <v>1.022058432237268</v>
       </c>
       <c r="K10">
-        <v>1.02939038629842</v>
+        <v>1.029731631046094</v>
       </c>
       <c r="L10">
-        <v>1.015744175427032</v>
+        <v>1.016338639503471</v>
       </c>
       <c r="M10">
-        <v>1.009282979037216</v>
+        <v>1.009846789861092</v>
       </c>
       <c r="N10">
-        <v>1.010700189406547</v>
+        <v>1.013029162133829</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031888580254479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032142328072654</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020231250358928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9898293169811716</v>
+        <v>0.990758710994021</v>
       </c>
       <c r="D11">
-        <v>1.013258935880585</v>
+        <v>1.013872450535997</v>
       </c>
       <c r="E11">
-        <v>0.9989692665467231</v>
+        <v>0.9998132206893156</v>
       </c>
       <c r="F11">
-        <v>0.9911285157500254</v>
+        <v>0.9919498274692613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.03977364398489</v>
+        <v>1.040229081785822</v>
       </c>
       <c r="J11">
-        <v>1.019631415919922</v>
+        <v>1.020521056768022</v>
       </c>
       <c r="K11">
-        <v>1.027935066157894</v>
+        <v>1.028537410333733</v>
       </c>
       <c r="L11">
-        <v>1.013910647203819</v>
+        <v>1.014738660254298</v>
       </c>
       <c r="M11">
-        <v>1.006219697214037</v>
+        <v>1.007025171995648</v>
       </c>
       <c r="N11">
-        <v>1.010085967625401</v>
+        <v>1.012845876128766</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03089260552174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031334179194063</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019975589567354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9886558303689575</v>
+        <v>0.9896945435932121</v>
       </c>
       <c r="D12">
-        <v>1.012484989300205</v>
+        <v>1.013205002387086</v>
       </c>
       <c r="E12">
-        <v>0.9980485290598586</v>
+        <v>0.9989898403715038</v>
       </c>
       <c r="F12">
-        <v>0.9897327703807584</v>
+        <v>0.9906549411790124</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039420039333742</v>
+        <v>1.039937640456831</v>
       </c>
       <c r="J12">
-        <v>1.018948178251157</v>
+        <v>1.019941544462062</v>
       </c>
       <c r="K12">
-        <v>1.027376842797602</v>
+        <v>1.028083514003484</v>
       </c>
       <c r="L12">
-        <v>1.013213211916018</v>
+        <v>1.014136419068293</v>
       </c>
       <c r="M12">
-        <v>1.005059353742908</v>
+        <v>1.005963394797122</v>
       </c>
       <c r="N12">
-        <v>1.009850574820075</v>
+        <v>1.01279219115025</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030497919322662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031013263538137</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019877455734376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9889061648616206</v>
+        <v>0.9899212713992609</v>
       </c>
       <c r="D13">
-        <v>1.012649044480383</v>
+        <v>1.013346109272581</v>
       </c>
       <c r="E13">
-        <v>0.9982446028814126</v>
+        <v>0.9991648911153148</v>
       </c>
       <c r="F13">
-        <v>0.9900310040045615</v>
+        <v>0.9909313761988613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039494804957345</v>
+        <v>1.039999002426025</v>
       </c>
       <c r="J13">
-        <v>1.019093202694493</v>
+        <v>1.020064185809065</v>
       </c>
       <c r="K13">
-        <v>1.027494621716956</v>
+        <v>1.028178818166133</v>
       </c>
       <c r="L13">
-        <v>1.01336136373811</v>
+        <v>1.014264020246574</v>
       </c>
       <c r="M13">
-        <v>1.005307033950432</v>
+        <v>1.006189778059584</v>
       </c>
       <c r="N13">
-        <v>1.009900269079037</v>
+        <v>1.012802352792131</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030578686142517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031077896811379</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019897807229343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9897317408009038</v>
+        <v>0.9906700916481567</v>
       </c>
       <c r="D14">
-        <v>1.013194132985622</v>
+        <v>1.01381639673265</v>
       </c>
       <c r="E14">
-        <v>0.9988925591030743</v>
+        <v>0.9997444897529958</v>
       </c>
       <c r="F14">
-        <v>0.9910126659748717</v>
+        <v>0.9918422330652354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03974395827876</v>
+        <v>1.040204498119743</v>
       </c>
       <c r="J14">
-        <v>1.019574294076957</v>
+        <v>1.020472440347644</v>
       </c>
       <c r="K14">
-        <v>1.02788809254843</v>
+        <v>1.028499009943194</v>
       </c>
       <c r="L14">
-        <v>1.01385238672282</v>
+        <v>1.014688201421268</v>
       </c>
       <c r="M14">
-        <v>1.006123278393844</v>
+        <v>1.00693682357923</v>
       </c>
       <c r="N14">
-        <v>1.010066172770871</v>
+        <v>1.012840833815108</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030858319191924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031305851569363</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01996717857315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9902425864676826</v>
+        <v>0.9911343355107429</v>
       </c>
       <c r="D15">
-        <v>1.013533550219302</v>
+        <v>1.014110232468614</v>
       </c>
       <c r="E15">
-        <v>0.9992942351765967</v>
+        <v>1.000104673926733</v>
       </c>
       <c r="F15">
-        <v>0.991619125570348</v>
+        <v>0.9924057573259893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039899394100717</v>
+        <v>1.040333378873263</v>
       </c>
       <c r="J15">
-        <v>1.019873411562414</v>
+        <v>1.020727292144134</v>
       </c>
       <c r="K15">
-        <v>1.028134142669529</v>
+        <v>1.0287003900818</v>
       </c>
       <c r="L15">
-        <v>1.014157471770804</v>
+        <v>1.014952699891847</v>
       </c>
       <c r="M15">
-        <v>1.006628025280154</v>
+        <v>1.007399592217135</v>
       </c>
       <c r="N15">
-        <v>1.010169854679247</v>
+        <v>1.012868005217326</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031038191974758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031454706744061</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020011322785687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9931647626314064</v>
+        <v>0.9938056219802918</v>
       </c>
       <c r="D16">
-        <v>1.015464906871503</v>
+        <v>1.015792597733364</v>
       </c>
       <c r="E16">
-        <v>1.001591240855169</v>
+        <v>1.002178902045934</v>
       </c>
       <c r="F16">
-        <v>0.9950940259703066</v>
+        <v>0.9956502017951334</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04077674072044</v>
+        <v>1.04106732047427</v>
       </c>
       <c r="J16">
-        <v>1.021574558601634</v>
+        <v>1.022189599175482</v>
       </c>
       <c r="K16">
-        <v>1.02952456625808</v>
+        <v>1.029846590492592</v>
       </c>
       <c r="L16">
-        <v>1.015895230811066</v>
+        <v>1.016472364441912</v>
       </c>
       <c r="M16">
-        <v>1.009515487813313</v>
+        <v>1.010061529703165</v>
       </c>
       <c r="N16">
-        <v>1.01075615008724</v>
+        <v>1.013055297203274</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032024461671742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032268592338136</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020260119301714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9949754178957015</v>
+        <v>0.9954758251426205</v>
       </c>
       <c r="D17">
-        <v>1.016663551683788</v>
+        <v>1.016848202634081</v>
       </c>
       <c r="E17">
-        <v>1.003016915624112</v>
+        <v>1.003480270927189</v>
       </c>
       <c r="F17">
-        <v>0.9972470423513934</v>
+        <v>0.9976746610019445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041317979189233</v>
+        <v>1.041527557125014</v>
       </c>
       <c r="J17">
-        <v>1.022628062197954</v>
+        <v>1.023108977801615</v>
       </c>
       <c r="K17">
-        <v>1.030385583382591</v>
+        <v>1.03056713286121</v>
       </c>
       <c r="L17">
-        <v>1.016972253354935</v>
+        <v>1.017427552324959</v>
       </c>
       <c r="M17">
-        <v>1.011303513681568</v>
+        <v>1.011723585048227</v>
       </c>
       <c r="N17">
-        <v>1.011119216888597</v>
+        <v>1.013209947385955</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032635835088638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032780886532585</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020417034085567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9960134799998586</v>
+        <v>0.9964393764431116</v>
       </c>
       <c r="D18">
-        <v>1.017346166838899</v>
+        <v>1.017453217057901</v>
       </c>
       <c r="E18">
-        <v>1.003833702154442</v>
+        <v>1.004231313219388</v>
       </c>
       <c r="F18">
-        <v>0.9984838708259205</v>
+        <v>0.9988434101723139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041623585376655</v>
+        <v>1.041789880309667</v>
       </c>
       <c r="J18">
-        <v>1.023227943869635</v>
+        <v>1.02363757802155</v>
       </c>
       <c r="K18">
-        <v>1.030872052762742</v>
+        <v>1.03097733559492</v>
       </c>
       <c r="L18">
-        <v>1.017586587409069</v>
+        <v>1.017977406223889</v>
       </c>
       <c r="M18">
-        <v>1.01232882605327</v>
+        <v>1.012682137772548</v>
       </c>
       <c r="N18">
-        <v>1.011324579911202</v>
+        <v>1.01331141119429</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032968094667545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033058085961995</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020505300873851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9963740268065864</v>
+        <v>0.9967748834943029</v>
       </c>
       <c r="D19">
-        <v>1.017587455024011</v>
+        <v>1.017668224355389</v>
       </c>
       <c r="E19">
-        <v>1.004118624775117</v>
+        <v>1.004494132564097</v>
       </c>
       <c r="F19">
-        <v>0.9989114985111924</v>
+        <v>0.999248173540728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041732565050246</v>
+        <v>1.041884223141728</v>
       </c>
       <c r="J19">
-        <v>1.023439289521252</v>
+        <v>1.02382494461346</v>
       </c>
       <c r="K19">
-        <v>1.031046404271452</v>
+        <v>1.03112584799875</v>
       </c>
       <c r="L19">
-        <v>1.01780247813392</v>
+        <v>1.018171610148557</v>
       </c>
       <c r="M19">
-        <v>1.012684402924424</v>
+        <v>1.01301528393368</v>
       </c>
       <c r="N19">
-        <v>1.01139800059758</v>
+        <v>1.013351241573941</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033097789779052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033170131753071</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020538280967114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9947811704948775</v>
+        <v>0.9952960620157465</v>
       </c>
       <c r="D20">
-        <v>1.016534483040593</v>
+        <v>1.016734040198482</v>
       </c>
       <c r="E20">
-        <v>1.002863771486978</v>
+        <v>1.003339933534505</v>
       </c>
       <c r="F20">
-        <v>0.9970162640749516</v>
+        <v>0.9974571268607286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041259707847831</v>
+        <v>1.041477676929752</v>
       </c>
       <c r="J20">
-        <v>1.02251476224704</v>
+        <v>1.023009524640598</v>
       </c>
       <c r="K20">
-        <v>1.030292693480368</v>
+        <v>1.030488888214583</v>
       </c>
       <c r="L20">
-        <v>1.016856451147413</v>
+        <v>1.01732430737841</v>
       </c>
       <c r="M20">
-        <v>1.011111782570123</v>
+        <v>1.011544837485242</v>
       </c>
       <c r="N20">
-        <v>1.011080064608353</v>
+        <v>1.013191591931486</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032568816502219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032724094091922</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020399877348831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895000824769374</v>
+        <v>0.990484037352218</v>
       </c>
       <c r="D21">
-        <v>1.01304672684609</v>
+        <v>1.013708172219423</v>
       </c>
       <c r="E21">
-        <v>0.9987122614670232</v>
+        <v>0.9996055320971282</v>
       </c>
       <c r="F21">
-        <v>0.9907345289080748</v>
+        <v>0.991606150740482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039678154509763</v>
+        <v>1.0401636590008</v>
       </c>
       <c r="J21">
-        <v>1.019443456386439</v>
+        <v>1.020385076109207</v>
       </c>
       <c r="K21">
-        <v>1.027785070093642</v>
+        <v>1.02843441125273</v>
       </c>
       <c r="L21">
-        <v>1.013718071588139</v>
+        <v>1.014594381649736</v>
       </c>
       <c r="M21">
-        <v>1.005893590659284</v>
+        <v>1.006748311444877</v>
       </c>
       <c r="N21">
-        <v>1.010022564818049</v>
+        <v>1.012901690582354</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030799068988529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031275076789849</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019956674311784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9860904481868772</v>
+        <v>0.9873791875886461</v>
       </c>
       <c r="D22">
-        <v>1.010794541360747</v>
+        <v>1.011755963138412</v>
       </c>
       <c r="E22">
-        <v>0.9960381383015615</v>
+        <v>0.9972026131325353</v>
       </c>
       <c r="F22">
-        <v>0.9866815254704836</v>
+        <v>0.9878353232058146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038644111988338</v>
+        <v>1.039303750611677</v>
       </c>
       <c r="J22">
-        <v>1.017453522495084</v>
+        <v>1.018683492205964</v>
       </c>
       <c r="K22">
-        <v>1.026155147012887</v>
+        <v>1.027098074904968</v>
       </c>
       <c r="L22">
-        <v>1.011688491143102</v>
+        <v>1.012829691241736</v>
       </c>
       <c r="M22">
-        <v>1.002521523001328</v>
+        <v>1.003651678859236</v>
       </c>
       <c r="N22">
-        <v>1.009335443017327</v>
+        <v>1.012700466340881</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029633054334179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030315354230818</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019664658134819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9878920327317898</v>
+        <v>0.9890037732301099</v>
       </c>
       <c r="D23">
-        <v>1.011977230808307</v>
+        <v>1.012767969788616</v>
       </c>
       <c r="E23">
-        <v>0.9974484222490373</v>
+        <v>0.9984548972128998</v>
       </c>
       <c r="F23">
-        <v>0.9888263606953862</v>
+        <v>0.989816049951156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039186335205675</v>
+        <v>1.039745487015819</v>
       </c>
       <c r="J23">
-        <v>1.018500155822301</v>
+        <v>1.019562725337676</v>
       </c>
       <c r="K23">
-        <v>1.027007687977515</v>
+        <v>1.027783609861017</v>
       </c>
       <c r="L23">
-        <v>1.012756608543572</v>
+        <v>1.013743502353852</v>
       </c>
       <c r="M23">
-        <v>1.004304438593314</v>
+        <v>1.005274429062488</v>
       </c>
       <c r="N23">
-        <v>1.009695032304334</v>
+        <v>1.012759112024894</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030226151574589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030789427487998</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019811626077078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9948473999644597</v>
+        <v>0.9953577783311561</v>
       </c>
       <c r="D24">
-        <v>1.016567507785319</v>
+        <v>1.016762166311898</v>
       </c>
       <c r="E24">
-        <v>1.002913039084812</v>
+        <v>1.003385313813773</v>
       </c>
       <c r="F24">
-        <v>0.9971002079093154</v>
+        <v>0.9975369519292356</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041271557267477</v>
+        <v>1.041486986136344</v>
       </c>
       <c r="J24">
-        <v>1.022545247952038</v>
+        <v>1.023035705312567</v>
       </c>
       <c r="K24">
-        <v>1.030309794749071</v>
+        <v>1.030501177853844</v>
       </c>
       <c r="L24">
-        <v>1.01688919088743</v>
+        <v>1.017353239225275</v>
       </c>
       <c r="M24">
-        <v>1.011178439237212</v>
+        <v>1.011607459958916</v>
       </c>
       <c r="N24">
-        <v>1.011087733844162</v>
+        <v>1.013192613264063</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032553380951364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032702589342585</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02039996482534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002612121701207</v>
+        <v>1.002669808071097</v>
       </c>
       <c r="D25">
-        <v>1.021716585863957</v>
+        <v>1.021408407137115</v>
       </c>
       <c r="E25">
-        <v>1.009045670012441</v>
+        <v>1.009120966779179</v>
       </c>
       <c r="F25">
-        <v>1.006336731667538</v>
+        <v>1.006360709770409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043565065786398</v>
+        <v>1.043510019345613</v>
       </c>
       <c r="J25">
-        <v>1.027051896178605</v>
+        <v>1.027107655375534</v>
       </c>
       <c r="K25">
-        <v>1.033986880444902</v>
+        <v>1.033683232741022</v>
       </c>
       <c r="L25">
-        <v>1.021505167947558</v>
+        <v>1.021579322493652</v>
       </c>
       <c r="M25">
-        <v>1.018837468064562</v>
+        <v>1.018861079904182</v>
       </c>
       <c r="N25">
-        <v>1.012638862056949</v>
+        <v>1.014254097805078</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035150411946478</v>
+        <v>1.034949286900382</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021095680864949</v>
       </c>
     </row>
   </sheetData>
